--- a/Water/Moisture based smart irrigation/moisture_based_smart_irrigation_master.xlsx
+++ b/Water/Moisture based smart irrigation/moisture_based_smart_irrigation_master.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>Objective</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Updated</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
     <t>Images</t>
   </si>
   <si>
@@ -132,16 +129,22 @@
     <t>Connect relay to pump</t>
   </si>
   <si>
-    <t>4//6</t>
-  </si>
-  <si>
-    <t>4//5</t>
-  </si>
-  <si>
     <t>Working video</t>
   </si>
   <si>
     <t>Code modified to include connections and parameters</t>
+  </si>
+  <si>
+    <t>5//5</t>
+  </si>
+  <si>
+    <t>6//6</t>
+  </si>
+  <si>
+    <t>Upload code</t>
+  </si>
+  <si>
+    <t>Not sure how to frame steps?</t>
   </si>
 </sst>
 </file>
@@ -165,7 +168,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,6 +187,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -197,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -208,6 +217,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,15 +556,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>39</v>
@@ -562,18 +572,18 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
+        <v>14</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -587,7 +597,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,7 +623,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -624,7 +634,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -632,10 +642,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -650,7 +660,7 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -672,7 +682,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,13 +695,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D1" s="4"/>
     </row>
@@ -700,10 +710,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -711,25 +721,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="6"/>
     </row>
@@ -738,25 +748,25 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -764,44 +774,47 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>5</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>37</v>
+      <c r="C15" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Water/Moisture based smart irrigation/moisture_based_smart_irrigation_master.xlsx
+++ b/Water/Moisture based smart irrigation/moisture_based_smart_irrigation_master.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>Objective</t>
   </si>
@@ -135,23 +135,55 @@
     <t>Code modified to include connections and parameters</t>
   </si>
   <si>
-    <t>5//5</t>
-  </si>
-  <si>
-    <t>6//6</t>
-  </si>
-  <si>
     <t>Upload code</t>
   </si>
   <si>
     <t>Not sure how to frame steps?</t>
+  </si>
+  <si>
+    <t>5/5</t>
+  </si>
+  <si>
+    <t>6/6</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>How to connect? Do I put both wires next to each other?</t>
+  </si>
+  <si>
+    <t>1. Put a image of the relay and explain the differnet pins and sockets. 
+2. Then explain in a para how the relay works
+3. Then show the connection in 2 parts - part a from arduino to relay and part b - relay to pump</t>
+  </si>
+  <si>
+    <t>Give this as 1 code - Arduino + Sensor</t>
+  </si>
+  <si>
+    <t>Give this as 2nd code</t>
+  </si>
+  <si>
+    <t>Give this as 3rd code</t>
+  </si>
+  <si>
+    <t>Answered here</t>
+  </si>
+  <si>
+    <t>Give as code 4</t>
+  </si>
+  <si>
+    <t>Boxing</t>
+  </si>
+  <si>
+    <t>Show how to package all this in one box</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +195,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -203,10 +243,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -214,12 +255,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -278,7 +324,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,7 +359,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -524,13 +570,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -566,16 +612,16 @@
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>39</v>
+      <c r="B5" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>40</v>
+      <c r="B6" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -600,11 +646,11 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -660,7 +706,7 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -679,21 +725,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.21875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -703,9 +749,11 @@
       <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -715,8 +763,11 @@
       <c r="C2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -726,24 +777,27 @@
       <c r="C3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -753,23 +807,26 @@
       <c r="C7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -779,45 +836,71 @@
       <c r="C11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>5</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>38</v>
       </c>
+      <c r="D16" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D15" location="Steps!D12" display="Answered here"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Water/Moisture based smart irrigation/moisture_based_smart_irrigation_master.xlsx
+++ b/Water/Moisture based smart irrigation/moisture_based_smart_irrigation_master.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
   <si>
     <t>Objective</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Sl no.</t>
   </si>
   <si>
-    <t>Connect 5V and GND from Arduino UNO to breadboard</t>
-  </si>
-  <si>
     <t>5V and GND Connections</t>
   </si>
   <si>
@@ -99,24 +96,12 @@
     <t>Make connections as follows-</t>
   </si>
   <si>
-    <t>Vcc to 5V(breadboard)</t>
-  </si>
-  <si>
-    <t>GND to GND(breadboard)</t>
-  </si>
-  <si>
     <t>A0 to A0(analogpin on Arduino UNO)</t>
   </si>
   <si>
     <t>Connect flow meter to Arduino UNO</t>
   </si>
   <si>
-    <t>Vcc(red) to 5V(breadboard)</t>
-  </si>
-  <si>
-    <t>GND(black) to GND(breadboard)</t>
-  </si>
-  <si>
     <t>Data pin(yellow) to D2(digital pin on Arduino UNO)</t>
   </si>
   <si>
@@ -132,15 +117,9 @@
     <t>Working video</t>
   </si>
   <si>
-    <t>Code modified to include connections and parameters</t>
-  </si>
-  <si>
     <t>Upload code</t>
   </si>
   <si>
-    <t>Not sure how to frame steps?</t>
-  </si>
-  <si>
     <t>5/5</t>
   </si>
   <si>
@@ -150,40 +129,80 @@
     <t>Questions</t>
   </si>
   <si>
-    <t>How to connect? Do I put both wires next to each other?</t>
-  </si>
-  <si>
-    <t>1. Put a image of the relay and explain the differnet pins and sockets. 
-2. Then explain in a para how the relay works
-3. Then show the connection in 2 parts - part a from arduino to relay and part b - relay to pump</t>
-  </si>
-  <si>
-    <t>Give this as 1 code - Arduino + Sensor</t>
-  </si>
-  <si>
-    <t>Give this as 2nd code</t>
-  </si>
-  <si>
-    <t>Give this as 3rd code</t>
-  </si>
-  <si>
-    <t>Answered here</t>
-  </si>
-  <si>
-    <t>Give as code 4</t>
-  </si>
-  <si>
     <t>Boxing</t>
   </si>
   <si>
     <t>Show how to package all this in one box</t>
+  </si>
+  <si>
+    <t>Connect 5V from Arduino UNO to breadboard</t>
+  </si>
+  <si>
+    <t>Connect GND from Arduino UNO to breadboard</t>
+  </si>
+  <si>
+    <t>Each hole in the breadboard is connected to metal strips underneath. These metal strips are shown in the image. For series connection, connect holes in the same metal strip.</t>
+  </si>
+  <si>
+    <t>Attachments</t>
+  </si>
+  <si>
+    <t>Vcc to 5V(breadboard)- series connection - connect to a hole in the same metal strip as that of 5V connection from Arduino UNO to breadboard</t>
+  </si>
+  <si>
+    <t>Vcc(red) to 5V(breadboard)- series connection - connect to a hole in the same metal strip as that of 5V connection from Arduino UNO to breadboard</t>
+  </si>
+  <si>
+    <t>GND to GND(breadboard)- series connection - connect to a hole in the same metal strip as that of GND connection from Arduino UNO to breadboard</t>
+  </si>
+  <si>
+    <t>GND(black) to GND(breadboard)- series connection - connect to a hole in the same metal strip as that of GND connection from Arduino UNO to breadboard</t>
+  </si>
+  <si>
+    <t>step image, step code,working of flow meter</t>
+  </si>
+  <si>
+    <t>Relays are electrically operated switches. They are used when high power circuit(pump) is controlled using a low power circuit(Arduino UNO).</t>
+  </si>
+  <si>
+    <t>Relay pins(3)- Vcc, GND, Data</t>
+  </si>
+  <si>
+    <t>Relay contacts(3)-Normally open(NO),Normally closed(NC),Common(COM)</t>
+  </si>
+  <si>
+    <t>COM to pump</t>
+  </si>
+  <si>
+    <t>NC to power supply</t>
+  </si>
+  <si>
+    <t>Step code</t>
+  </si>
+  <si>
+    <t>Step image</t>
+  </si>
+  <si>
+    <t>Final code</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Breadboard connections</t>
+  </si>
+  <si>
+    <t>Image of step</t>
+  </si>
+  <si>
+    <t>Soil moisture sensor uses the property of resistance to measure moisture content of the soil. More the water content, more the conductivity between the probes and so lower the resistance offered. So a low signal is transmitted. Similarly, lesser the water content, high signal is transmitted.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +222,27 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -247,7 +287,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -255,7 +295,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -263,6 +302,30 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -324,7 +387,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -359,7 +422,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -574,9 +637,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -612,21 +675,21 @@
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>41</v>
+      <c r="B5" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>42</v>
+      <c r="B6" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -646,11 +709,11 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -706,7 +769,7 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -725,182 +788,242 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.21875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C7" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C8" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="C9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="C12" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C13" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="C6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C18" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C19" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>5</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+      <c r="C21" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>6</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>5</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="C25" s="16"/>
+      <c r="D25" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D15" location="Steps!D12" display="Answered here"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Water/Moisture based smart irrigation/moisture_based_smart_irrigation_master.xlsx
+++ b/Water/Moisture based smart irrigation/moisture_based_smart_irrigation_master.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>Objective</t>
   </si>
@@ -159,15 +159,9 @@
     <t>GND(black) to GND(breadboard)- series connection - connect to a hole in the same metal strip as that of GND connection from Arduino UNO to breadboard</t>
   </si>
   <si>
-    <t>step image, step code,working of flow meter</t>
-  </si>
-  <si>
     <t>Relays are electrically operated switches. They are used when high power circuit(pump) is controlled using a low power circuit(Arduino UNO).</t>
   </si>
   <si>
-    <t>Relay pins(3)- Vcc, GND, Data</t>
-  </si>
-  <si>
     <t>Relay contacts(3)-Normally open(NO),Normally closed(NC),Common(COM)</t>
   </si>
   <si>
@@ -177,9 +171,6 @@
     <t>NC to power supply</t>
   </si>
   <si>
-    <t>Step code</t>
-  </si>
-  <si>
     <t>Step image</t>
   </si>
   <si>
@@ -196,6 +187,21 @@
   </si>
   <si>
     <t>Soil moisture sensor uses the property of resistance to measure moisture content of the soil. More the water content, more the conductivity between the probes and so lower the resistance offered. So a low signal is transmitted. Similarly, lesser the water content, high signal is transmitted.</t>
+  </si>
+  <si>
+    <t>The flow sensor sits in line with the water line and contains an integrated magnetic hall effect sensor that outputs an electrical pulse with every revolution.</t>
+  </si>
+  <si>
+    <t>Soil moisture sensor pins(4)-Vcc,GND,analog pin A0, digital pin D0</t>
+  </si>
+  <si>
+    <t>Flow meter pins(3)- Vcc, GND, data pin</t>
+  </si>
+  <si>
+    <t>Relay pins(3)- Vcc, GND, data pin</t>
+  </si>
+  <si>
+    <t>step image</t>
   </si>
 </sst>
 </file>
@@ -788,10 +794,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,7 +837,7 @@
         <v>41</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -839,7 +845,7 @@
         <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -855,171 +861,185 @@
         <v>24</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
       <c r="C6" s="12" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="12" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C8" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C9" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="C9" s="15" t="s">
+    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="C10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="C11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="C14" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="12" t="s">
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="C12" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C13" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="18" t="s">
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C21" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>5</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C18" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C19" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>5</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-      <c r="C23" s="19" t="s">
+      <c r="D23" s="4"/>
+      <c r="E23" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="19" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="B25" s="5"/>
+      <c r="C25" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>6</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="C27" s="16"/>
+      <c r="D27" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
         <v>7</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C28" s="13" t="s">
         <v>38</v>
       </c>
     </row>

--- a/Water/Moisture based smart irrigation/moisture_based_smart_irrigation_master.xlsx
+++ b/Water/Moisture based smart irrigation/moisture_based_smart_irrigation_master.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Steps" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
   <si>
     <t>Objective</t>
   </si>
@@ -120,12 +121,6 @@
     <t>Upload code</t>
   </si>
   <si>
-    <t>5/5</t>
-  </si>
-  <si>
-    <t>6/6</t>
-  </si>
-  <si>
     <t>Questions</t>
   </si>
   <si>
@@ -171,9 +166,6 @@
     <t>NC to power supply</t>
   </si>
   <si>
-    <t>Step image</t>
-  </si>
-  <si>
     <t>Final code</t>
   </si>
   <si>
@@ -183,15 +175,9 @@
     <t>Breadboard connections</t>
   </si>
   <si>
-    <t>Image of step</t>
-  </si>
-  <si>
     <t>Soil moisture sensor uses the property of resistance to measure moisture content of the soil. More the water content, more the conductivity between the probes and so lower the resistance offered. So a low signal is transmitted. Similarly, lesser the water content, high signal is transmitted.</t>
   </si>
   <si>
-    <t>The flow sensor sits in line with the water line and contains an integrated magnetic hall effect sensor that outputs an electrical pulse with every revolution.</t>
-  </si>
-  <si>
     <t>Soil moisture sensor pins(4)-Vcc,GND,analog pin A0, digital pin D0</t>
   </si>
   <si>
@@ -201,7 +187,31 @@
     <t>Relay pins(3)- Vcc, GND, data pin</t>
   </si>
   <si>
-    <t>step image</t>
+    <t>Attach flow sensor to tap</t>
+  </si>
+  <si>
+    <t>The flow sensor contains an integrated magnetic hall effect sensor that outputs an electrical pulse with every revolution.</t>
+  </si>
+  <si>
+    <t>The flow sensor sits in line with the water flow such that the arrow on it indicates the direction of flow.</t>
+  </si>
+  <si>
+    <t>Insert soil moisture probe into soil</t>
+  </si>
+  <si>
+    <t>Insert soil moisture probe into soil as shown</t>
+  </si>
+  <si>
+    <t>Extend connections as per required using wires</t>
+  </si>
+  <si>
+    <t>8/9</t>
+  </si>
+  <si>
+    <t>7/8</t>
+  </si>
+  <si>
+    <t>2 sub codes</t>
   </si>
 </sst>
 </file>
@@ -293,7 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -331,7 +341,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -637,23 +646,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -661,15 +671,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -677,23 +690,23 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -794,10 +807,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,10 +833,10 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -834,23 +847,23 @@
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -861,16 +874,15 @@
         <v>24</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C6" s="12" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="C6" s="12" t="s">
-        <v>58</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -883,12 +895,12 @@
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C8" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C9" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -899,7 +911,7 @@
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="2">
         <v>3</v>
       </c>
       <c r="B11" t="s">
@@ -911,13 +923,13 @@
       <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -928,12 +940,12 @@
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="C14" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -949,15 +961,15 @@
         <v>29</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C18" s="18" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -967,13 +979,13 @@
     </row>
     <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C20" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -981,66 +993,112 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>5</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="21" t="s">
-        <v>51</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="D24" s="6"/>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>6</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="C25" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>7</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>6</v>
-      </c>
-      <c r="B27" s="5" t="s">
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="C28" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="C29" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="C30" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>8</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>38</v>
+      <c r="C31" s="16"/>
+      <c r="D31" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Water/Moisture based smart irrigation/moisture_based_smart_irrigation_master.xlsx
+++ b/Water/Moisture based smart irrigation/moisture_based_smart_irrigation_master.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
     <sheet name="Components" sheetId="2" r:id="rId2"/>
     <sheet name="Steps" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
   <si>
     <t>Objective</t>
   </si>
@@ -88,9 +87,6 @@
     <t>Sl no.</t>
   </si>
   <si>
-    <t>5V and GND Connections</t>
-  </si>
-  <si>
     <t>Connect soil moisture sensor to Arduino UNO</t>
   </si>
   <si>
@@ -160,12 +156,6 @@
     <t>Relay contacts(3)-Normally open(NO),Normally closed(NC),Common(COM)</t>
   </si>
   <si>
-    <t>COM to pump</t>
-  </si>
-  <si>
-    <t>NC to power supply</t>
-  </si>
-  <si>
     <t>Final code</t>
   </si>
   <si>
@@ -175,12 +165,6 @@
     <t>Breadboard connections</t>
   </si>
   <si>
-    <t>Soil moisture sensor uses the property of resistance to measure moisture content of the soil. More the water content, more the conductivity between the probes and so lower the resistance offered. So a low signal is transmitted. Similarly, lesser the water content, high signal is transmitted.</t>
-  </si>
-  <si>
-    <t>Soil moisture sensor pins(4)-Vcc,GND,analog pin A0, digital pin D0</t>
-  </si>
-  <si>
     <t>Flow meter pins(3)- Vcc, GND, data pin</t>
   </si>
   <si>
@@ -190,9 +174,6 @@
     <t>Attach flow sensor to tap</t>
   </si>
   <si>
-    <t>The flow sensor contains an integrated magnetic hall effect sensor that outputs an electrical pulse with every revolution.</t>
-  </si>
-  <si>
     <t>The flow sensor sits in line with the water flow such that the arrow on it indicates the direction of flow.</t>
   </si>
   <si>
@@ -212,6 +193,45 @@
   </si>
   <si>
     <t>2 sub codes</t>
+  </si>
+  <si>
+    <t>How The Sensor Works: Soil moisture sensor uses the property of resistance to measure moisture content of the soil. More the water content, more the conductivity between the probes and so lower the resistance offered. So a low signal is transmitted. Similarly, lesser the water content, high signal is transmitted.</t>
+  </si>
+  <si>
+    <t>Setup Breadboard: 5V and GND Connections</t>
+  </si>
+  <si>
+    <t>Soil moisture sensor pins(4)-Vcc,GND,analog pin A0, digital pin D0 (WE will NOT use D0)</t>
+  </si>
+  <si>
+    <t>How The Sensor Works: The flow sensor contains an integrated magnetic hall effect sensor that outputs an electrical pulse with every revolution.</t>
+  </si>
+  <si>
+    <t>COM to power Supply</t>
+  </si>
+  <si>
+    <t>NC to pump</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Vendor Link</t>
+  </si>
+  <si>
+    <t>Here</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>Casing</t>
+  </si>
+  <si>
+    <t>Power Adaptor</t>
+  </si>
+  <si>
+    <t>Power</t>
   </si>
 </sst>
 </file>
@@ -303,7 +323,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -341,6 +361,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -402,7 +423,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -437,7 +458,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -648,14 +669,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -679,7 +700,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -695,7 +716,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -703,12 +724,12 @@
         <v>14</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -722,28 +743,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -753,8 +780,14 @@
       <c r="C2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>150</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -764,8 +797,14 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>357</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -775,32 +814,97 @@
       <c r="C4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <f>124+75</f>
+        <v>199</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>470</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>150</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
+      <c r="D7">
+        <v>480</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8">
+        <f>490+60</f>
+        <v>550</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9">
+        <f>140+76</f>
+        <v>216</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId3"/>
+    <hyperlink ref="E4" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -809,20 +913,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -833,124 +937,124 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="C3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="C4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C6" s="12" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="C7" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C8" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C9" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="C10" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="C12" s="12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="C13" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="C14" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="C16" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -958,60 +1062,60 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="C18" s="18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="C19" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C20" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>5</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E23" s="11"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="19" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="11"/>
@@ -1021,20 +1125,20 @@
         <v>6</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="19" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="11"/>
@@ -1044,65 +1148,68 @@
         <v>7</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E27" s="20"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
       <c r="C29" s="19" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="11"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" s="5"/>
       <c r="C30" s="19" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>8</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>9</v>
       </c>
       <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>36</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Water/Moisture based smart irrigation/moisture_based_smart_irrigation_master.xlsx
+++ b/Water/Moisture based smart irrigation/moisture_based_smart_irrigation_master.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
     <sheet name="Components" sheetId="2" r:id="rId2"/>
     <sheet name="Steps" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
   <si>
     <t>Objective</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Relay</t>
   </si>
   <si>
-    <t>Solenoid</t>
-  </si>
-  <si>
     <t>Code</t>
   </si>
   <si>
@@ -75,12 +72,6 @@
     <t>flow based</t>
   </si>
   <si>
-    <t>RTC</t>
-  </si>
-  <si>
-    <t>clock based</t>
-  </si>
-  <si>
     <t>moisture based</t>
   </si>
   <si>
@@ -232,6 +223,12 @@
   </si>
   <si>
     <t>Power</t>
+  </si>
+  <si>
+    <t>Final image</t>
+  </si>
+  <si>
+    <t>Based on moisture content of the soil and required moisture for plant, water is supplied as and when needed.</t>
   </si>
 </sst>
 </file>
@@ -423,7 +420,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -458,7 +455,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -667,72 +664,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B6" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -743,20 +749,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -764,13 +770,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -778,16 +784,16 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>150</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -795,115 +801,81 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>357</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <f>124+75</f>
-        <v>199</v>
+        <v>470</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>470</v>
+        <v>150</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>9</v>
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
       </c>
       <c r="D6">
-        <v>150</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>480</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8">
         <f>490+60</f>
         <v>550</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E6" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9">
+      <c r="D7">
         <f>140+76</f>
         <v>216</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>67</v>
+      <c r="E7" s="21" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId1"/>
     <hyperlink ref="E3" r:id="rId2"/>
     <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="E4" r:id="rId4"/>
+    <hyperlink ref="E5" r:id="rId4"/>
     <hyperlink ref="E6" r:id="rId5"/>
     <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E8" r:id="rId7"/>
-    <hyperlink ref="E9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -911,150 +883,150 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>15</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C6" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C8" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C9" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="C10" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="C14" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1062,60 +1034,60 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C17" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C18" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C19" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C20" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>5</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="E23" s="11"/>
     </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="11"/>
@@ -1125,20 +1097,20 @@
         <v>6</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="11"/>
@@ -1148,68 +1120,86 @@
         <v>7</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="E27" s="20"/>
     </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="11"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>8</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>32</v>
-      </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
-        <v>9</v>
-      </c>
-      <c r="B32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D11" r:id="rId5"/>
+    <hyperlink ref="D12" r:id="rId6"/>
+    <hyperlink ref="D17" r:id="rId7"/>
+    <hyperlink ref="D23" r:id="rId8"/>
+    <hyperlink ref="D25" r:id="rId9"/>
+    <hyperlink ref="D27" r:id="rId10"/>
+    <hyperlink ref="D31" r:id="rId11"/>
+    <hyperlink ref="D32" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/Water/Moisture based smart irrigation/moisture_based_smart_irrigation_master.xlsx
+++ b/Water/Moisture based smart irrigation/moisture_based_smart_irrigation_master.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
   <si>
     <t>Objective</t>
   </si>
@@ -69,12 +69,6 @@
     <t>None</t>
   </si>
   <si>
-    <t>flow based</t>
-  </si>
-  <si>
-    <t>moisture based</t>
-  </si>
-  <si>
     <t>Sl no.</t>
   </si>
   <si>
@@ -229,6 +223,9 @@
   </si>
   <si>
     <t>Based on moisture content of the soil and required moisture for plant, water is supplied as and when needed.</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -281,7 +278,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,12 +297,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -320,7 +311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -329,7 +320,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -667,7 +657,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,8 +676,8 @@
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>70</v>
+      <c r="B2" s="11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
@@ -706,7 +696,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
@@ -721,21 +711,21 @@
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>54</v>
+      <c r="B6" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>53</v>
+      <c r="B7" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -749,135 +739,138 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2">
+      <c r="C2">
         <v>150</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3">
+      <c r="C3">
         <v>357</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="D4">
+      <c r="C4">
         <v>470</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5">
+      <c r="C5">
         <v>150</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="D5" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>66</v>
-      </c>
       <c r="B6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6">
+        <v>63</v>
+      </c>
+      <c r="C6">
         <f>490+60</f>
         <v>550</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7">
+        <v>65</v>
+      </c>
+      <c r="C7">
         <f>140+76</f>
         <v>216</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>64</v>
+      <c r="D7" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="1">
+        <f>SUM(C2:C8)</f>
+        <v>1893</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -885,34 +878,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -920,26 +913,26 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>45</v>
+        <v>55</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>44</v>
+      <c r="C3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="12" t="s">
-        <v>34</v>
+      <c r="C4" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -947,42 +940,42 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C6" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="12" t="s">
-        <v>21</v>
+      <c r="C7" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C9" s="11" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C9" s="12" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="C10" s="15" t="s">
-        <v>22</v>
+      <c r="C10" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="E10" s="6"/>
     </row>
@@ -991,42 +984,42 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="21" t="s">
+      <c r="C12" s="11" t="s">
         <v>44</v>
       </c>
+      <c r="D12" s="20" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="12" t="s">
-        <v>21</v>
+      <c r="C13" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="C14" s="12" t="s">
+      <c r="A14" s="16"/>
+      <c r="C14" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C15" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C15" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="12" t="s">
-        <v>24</v>
+      <c r="C16" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1034,39 +1027,39 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>44</v>
+        <v>23</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="18" t="s">
-        <v>47</v>
+      <c r="C18" s="17" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="12" t="s">
-        <v>21</v>
+      <c r="C19" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C21" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C21" s="12" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="12" t="s">
-        <v>26</v>
+      <c r="C22" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1074,103 +1067,103 @@
         <v>5</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="11"/>
+        <v>48</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="10"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
-      <c r="C24" s="19" t="s">
-        <v>52</v>
+      <c r="C24" s="18" t="s">
+        <v>50</v>
       </c>
       <c r="D24" s="6"/>
-      <c r="E24" s="11"/>
+      <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>6</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="11"/>
+        <v>46</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
-      <c r="C26" s="19" t="s">
-        <v>52</v>
+      <c r="C26" s="18" t="s">
+        <v>50</v>
       </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="11"/>
+      <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>7</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="20"/>
+      <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
-      <c r="C28" s="19" t="s">
-        <v>21</v>
+      <c r="C28" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="11"/>
+      <c r="E28" s="10"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
-      <c r="C29" s="19" t="s">
-        <v>60</v>
+      <c r="C29" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="11"/>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
-      <c r="C30" s="19" t="s">
-        <v>61</v>
+      <c r="C30" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="11"/>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>8</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="11" t="s">
-        <v>43</v>
+        <v>27</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="11" t="s">
-        <v>69</v>
+      <c r="C32" s="15"/>
+      <c r="D32" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1178,10 +1171,10 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Water/Moisture based smart irrigation/moisture_based_smart_irrigation_master.xlsx
+++ b/Water/Moisture based smart irrigation/moisture_based_smart_irrigation_master.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
   <si>
     <t>Objective</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Connect GND from Arduino UNO to breadboard</t>
   </si>
   <si>
-    <t>Each hole in the breadboard is connected to metal strips underneath. These metal strips are shown in the image. For series connection, connect holes in the same metal strip.</t>
-  </si>
-  <si>
     <t>Attachments</t>
   </si>
   <si>
@@ -177,9 +174,6 @@
     <t>7/8</t>
   </si>
   <si>
-    <t>2 sub codes</t>
-  </si>
-  <si>
     <t>How The Sensor Works: Soil moisture sensor uses the property of resistance to measure moisture content of the soil. More the water content, more the conductivity between the probes and so lower the resistance offered. So a low signal is transmitted. Similarly, lesser the water content, high signal is transmitted.</t>
   </si>
   <si>
@@ -226,6 +220,36 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Each hole in the breadboard is connected by metal strips underneath the plastic. These connections are shown in the image. For series connection(same signal given to multiple pins at once), place jumper cables into holes in the same line.</t>
+  </si>
+  <si>
+    <t>Small or large breadboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breadboard is divided into two halves by a ridge to ensure no cross-connection between the halves. If you are a beginner and just want to get the output, connect 5V to A1 on line 1 and connect GND to A5 on line 5. Place any 5V or Vcc connections in line 1,and any GND connections in line 5. </t>
+  </si>
+  <si>
+    <t>code atached</t>
+  </si>
+  <si>
+    <t>we want pump off and only when triggered on</t>
+  </si>
+  <si>
+    <t>ip56 enclosure</t>
+  </si>
+  <si>
+    <t>Upload</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>Instructable</t>
+  </si>
+  <si>
+    <t>2 codes+final</t>
   </si>
 </sst>
 </file>
@@ -654,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +701,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
@@ -696,7 +720,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
@@ -712,7 +736,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
@@ -720,7 +744,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
@@ -729,6 +753,19 @@
       </c>
       <c r="B8" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -741,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,10 +796,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -776,7 +813,7 @@
         <v>150</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -790,7 +827,7 @@
         <v>357</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -804,7 +841,7 @@
         <v>470</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -818,42 +855,42 @@
         <v>150</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C6">
         <f>490+60</f>
         <v>550</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7">
         <f>140+76</f>
         <v>216</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C9" s="1">
         <f>SUM(C2:C8)</f>
@@ -876,10 +913,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,24 +939,27 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -927,7 +967,7 @@
         <v>31</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -943,15 +983,15 @@
         <v>18</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C6" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>10</v>
@@ -964,12 +1004,12 @@
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C8" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C9" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -987,7 +1027,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>10</v>
@@ -995,10 +1035,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1009,12 +1049,12 @@
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="C14" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C15" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1030,15 +1070,15 @@
         <v>23</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C18" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1048,13 +1088,13 @@
     </row>
     <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C20" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C21" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1067,20 +1107,20 @@
         <v>5</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>49</v>
-      </c>
       <c r="D23" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" s="10"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="10"/>
@@ -1090,20 +1130,20 @@
         <v>6</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="D25" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="10"/>
@@ -1116,10 +1156,10 @@
         <v>25</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E27" s="19"/>
     </row>
@@ -1134,7 +1174,7 @@
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="10"/>
@@ -1142,7 +1182,7 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="10"/>
@@ -1156,17 +1196,17 @@
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="15"/>
       <c r="D32" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>9</v>
       </c>
@@ -1175,6 +1215,29 @@
       </c>
       <c r="C33" s="12" t="s">
         <v>30</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="C35" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="11" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1191,8 +1254,9 @@
     <hyperlink ref="D27" r:id="rId10"/>
     <hyperlink ref="D31" r:id="rId11"/>
     <hyperlink ref="D32" r:id="rId12"/>
+    <hyperlink ref="D33" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/Water/Moisture based smart irrigation/moisture_based_smart_irrigation_master.xlsx
+++ b/Water/Moisture based smart irrigation/moisture_based_smart_irrigation_master.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -680,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Water/Moisture based smart irrigation/moisture_based_smart_irrigation_master.xlsx
+++ b/Water/Moisture based smart irrigation/moisture_based_smart_irrigation_master.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
   <si>
     <t>Objective</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Working video</t>
   </si>
   <si>
-    <t>Upload code</t>
-  </si>
-  <si>
     <t>Questions</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>Relay contacts(3)-Normally open(NO),Normally closed(NC),Common(COM)</t>
   </si>
   <si>
-    <t>Final code</t>
-  </si>
-  <si>
     <t>Image</t>
   </si>
   <si>
@@ -250,6 +244,24 @@
   </si>
   <si>
     <t>2 codes+final</t>
+  </si>
+  <si>
+    <t>To check the working of this sensor upload code001</t>
+  </si>
+  <si>
+    <t>Code001</t>
+  </si>
+  <si>
+    <t>To check the working of this sensor upload code002</t>
+  </si>
+  <si>
+    <t>Code002</t>
+  </si>
+  <si>
+    <t>Upload code003</t>
+  </si>
+  <si>
+    <t>Code003</t>
   </si>
 </sst>
 </file>
@@ -701,7 +713,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
@@ -720,7 +732,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
@@ -736,7 +748,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
@@ -744,7 +756,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
@@ -757,15 +769,15 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -778,7 +790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -796,10 +808,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -813,7 +825,7 @@
         <v>150</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -827,7 +839,7 @@
         <v>357</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -841,7 +853,7 @@
         <v>470</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -855,42 +867,42 @@
         <v>150</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6">
         <f>490+60</f>
         <v>550</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7">
         <f>140+76</f>
         <v>216</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C9" s="1">
         <f>SUM(C2:C8)</f>
@@ -913,10 +925,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,10 +951,10 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -950,29 +962,29 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -983,19 +995,17 @@
         <v>18</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C6" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>10</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="11" t="s">
@@ -1004,12 +1014,12 @@
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C8" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C9" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1019,115 +1029,108 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="C11" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>3</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>41</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D12" s="20"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="C14" s="11" t="s">
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="C15" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C16" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C22" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C23" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C15" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C20" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C21" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="11" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>5</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>6</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>45</v>
@@ -1136,108 +1139,131 @@
         <v>46</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C27" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="19"/>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="D28" s="6"/>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>7</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="C29" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="19"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="18" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>8</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="10" t="s">
-        <v>40</v>
-      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="10" t="s">
-        <v>65</v>
-      </c>
+      <c r="C32" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="10"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+      <c r="A33" s="2">
+        <v>8</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
         <v>9</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="C35" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="C37" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C38" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="11" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1245,16 +1271,16 @@
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
     <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
-    <hyperlink ref="D11" r:id="rId5"/>
-    <hyperlink ref="D12" r:id="rId6"/>
-    <hyperlink ref="D17" r:id="rId7"/>
-    <hyperlink ref="D23" r:id="rId8"/>
-    <hyperlink ref="D25" r:id="rId9"/>
-    <hyperlink ref="D27" r:id="rId10"/>
-    <hyperlink ref="D31" r:id="rId11"/>
-    <hyperlink ref="D32" r:id="rId12"/>
-    <hyperlink ref="D33" r:id="rId13"/>
+    <hyperlink ref="D13" r:id="rId4"/>
+    <hyperlink ref="D19" r:id="rId5"/>
+    <hyperlink ref="D25" r:id="rId6"/>
+    <hyperlink ref="D27" r:id="rId7"/>
+    <hyperlink ref="D29" r:id="rId8"/>
+    <hyperlink ref="D33" r:id="rId9"/>
+    <hyperlink ref="D34" r:id="rId10"/>
+    <hyperlink ref="D35" r:id="rId11"/>
+    <hyperlink ref="D17" r:id="rId12"/>
+    <hyperlink ref="D11" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
